--- a/biology/Botanique/Homogyne_alpina/Homogyne_alpina.xlsx
+++ b/biology/Botanique/Homogyne_alpina/Homogyne_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homogyne alpina ou l'Homogyne des Alpes est une espèce de plantes à fleurs de la famille des Asteraceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Homogyne des Alpes est une plante de 10 à 30 cm de haut pourvue de feuilles basales arrondies et luisantes d'un diamètre variant de 2 à 4 cm, dentées, vert sombre, glabres au-dessus et souvent de couleur pourpre en-dessous. Les pétioles des feuilles et la hampe sont velus, d'aspect laineux. Le capitule est de couleur rougeâtre, peu étalé (1 à 1,5 cm de diamètre). La floraison a lieu entre mai et août.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Homogyne des Alpes est une plante de montagne et même de haute montagne puisqu'on la trouve dans les Alpes entre 1 200 m et 3 200 m d'altitude. On peut aussi la croiser dans le Jura, les monts du Forez (très rare), les Pyrénées et le nord des Apennins. Elle affectionne les pelouses humides et les bois clairs.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 décembre 2018)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 décembre 2018) :
 Homogyne alpina subsp. alpina'
 Homogyne alpina subsp. cantabrica (Losa &amp; P.Monts.) Rivas Mart., T.E.Díaz, Fern.Prieto, Loidi &amp; Penas</t>
         </is>
